--- a/medicine/Premiers secours et secourisme/Œuvres_hospitalières_françaises_de_l'ordre_de_Malte/Œuvres_hospitalières_françaises_de_l'ordre_de_Malte.xlsx
+++ b/medicine/Premiers secours et secourisme/Œuvres_hospitalières_françaises_de_l'ordre_de_Malte/Œuvres_hospitalières_françaises_de_l'ordre_de_Malte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92uvres_hospitali%C3%A8res_fran%C3%A7aises_de_l%27ordre_de_Malte</t>
+          <t>Œuvres_hospitalières_françaises_de_l'ordre_de_Malte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œuvres hospitalières françaises de l’ordre de Malte (OHFOM) ou plus communément appelé ordre de Malte-France est l'organisme en France qui a pour objet de réaliser les projets, de gérer l'activité hospitalière et de promouvoir toutes les actions de l'ordre souverain militaire et hospitalier de Saint-Jean de Jérusalem, de Rhodes et de Malte qui expriment les valeurs fondamentales de l'Ordre « Tuitio Fidei et Obsequium Pauperum » (protection de la foi et service des pauvres).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92uvres_hospitali%C3%A8res_fran%C3%A7aises_de_l%27ordre_de_Malte</t>
+          <t>Œuvres_hospitalières_françaises_de_l'ordre_de_Malte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Création des œuvres hospitalières françaises de l'ordre de Malte (OHFOM)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les « œuvres hospitalières françaises de l'ordre de Malte », appelées « ordre de Malte-France », ont été fondées en 1927 par l'« association française des membres de l'ordre de Malte » (1891), qui est la composante territoriale de l'Ordre en France. L’ordre souverain de Malte n'est pas reconnu comme souverain et ne dispose pas à Paris d'un ambassadeur mais d'un « représentant officiel auprès de la France »[3]. Ce statut particulier lui a été accordé dans sa définition actuelle en 1991.
-Reconnu d'utilité publique dès 1928[4] par le gouvernement français, l'ordre de Malte France est très actif dans la lutte contre la lèpre, l'exclusion et dans les actions de secourisme. L'ordre de Malte France gère 13 établissements médico-sociaux et sanitaires dans les domaines du handicap, de l'autisme et des personnes âgées dépendantes. L'ordre de Malte France a reçu en 2007 le « grand prix humanitaire » de l'Institut de France[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les « œuvres hospitalières françaises de l'ordre de Malte », appelées « ordre de Malte-France », ont été fondées en 1927 par l'« association française des membres de l'ordre de Malte » (1891), qui est la composante territoriale de l'Ordre en France. L’ordre souverain de Malte n'est pas reconnu comme souverain et ne dispose pas à Paris d'un ambassadeur mais d'un « représentant officiel auprès de la France ». Ce statut particulier lui a été accordé dans sa définition actuelle en 1991.
+Reconnu d'utilité publique dès 1928 par le gouvernement français, l'ordre de Malte France est très actif dans la lutte contre la lèpre, l'exclusion et dans les actions de secourisme. L'ordre de Malte France gère 13 établissements médico-sociaux et sanitaires dans les domaines du handicap, de l'autisme et des personnes âgées dépendantes. L'ordre de Malte France a reçu en 2007 le « grand prix humanitaire » de l'Institut de France.
 Pour promouvoir son action auprès du public et lui permettre de faire appel au don en confiance, l'œuvres hospitalières françaises de l'ordre de Malte (OHFOM), adhère au comité de la Charte. 
-La fête de l'Ordre se déroulait le jour de la Saint-Jean-Baptiste, c'est-à-dire le 24 juin[6]. À cette occasion en France, les membres de l’Ordre se réunissent au château de Versailles[6] ; une messe solennelle est alors célébrée à la chapelle royale[7].
+La fête de l'Ordre se déroulait le jour de la Saint-Jean-Baptiste, c'est-à-dire le 24 juin. À cette occasion en France, les membres de l’Ordre se réunissent au château de Versailles ; une messe solennelle est alors célébrée à la chapelle royale.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92uvres_hospitali%C3%A8res_fran%C3%A7aises_de_l%27ordre_de_Malte</t>
+          <t>Œuvres_hospitalières_françaises_de_l'ordre_de_Malte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,19 +559,21 @@
           <t>Activités de l’ordre de Malte-France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'ordre de Malte-France mène plusieurs activités (exemples non exhaustifs)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'ordre de Malte-France mène plusieurs activités (exemples non exhaustifs) :
 le secourisme : reconnue comme association agréée de sécurité civile à l'échelle nationale pour assurer des postes de secours et dispenser des formations au secourisme, l'association et ses 1 500 secouristes prennent en charge chaque année 9 000 personnes en réalisant de nombreux postes de secours et de nombreuses gardes auprès de la BSPP et du SAMU ;
-la santé : 13 établissements médico-sociaux et sanitaires pour accueillir des enfants et adultes malades ou en situation de handicap, dans les domaines de la dépendance, de l’autisme, du handicap et des soins aux enfants[9] ;
+la santé : 13 établissements médico-sociaux et sanitaires pour accueillir des enfants et adultes malades ou en situation de handicap, dans les domaines de la dépendance, de l’autisme, du handicap et des soins aux enfants ;
 la lutte contre la lèpre : en tant qu'acteur historique majeur de ce combat, l'ordre de Malte-France intervient dans 11 pays touchés par la lèpre (dépistage et soins, traitement chirurgical des séquelles, réinsertion et formation du personnel soignant). En France, en janvier, durant trois jours, 10 000 quêteurs bénévoles sont mobilisés, à travers plus de 100 délégations, pour solliciter la générosité du public afin de contribuer à vaincre la maladie ;
 la lutte contre l’exclusion : accueil et accompagnement des personnes en situation de précarité (hébergement d’urgence et de réinsertion sociale grâce aux péniches Fleuron Saint-Jean et Fleuron Saint-Michel, aide alimentaire et petits déjeuners dans toute la France, maraudes du Samu social, soins médicaux (consultations, maraudes médicales, dispensaires) et accueil de jour ;
-en 2020, l'ordre de Malte France lance les maraudes Soli'Malte pour faire face aux urgences sanitaires et sociales[10]
+en 2020, l'ordre de Malte France lance les maraudes Soli'Malte pour faire face aux urgences sanitaires et sociales
 l'ordre de Malte-France, lors des opérations « P'tits déj' en Carême » et « P'tits déj en Avent », invite les enfants des établissements privés d'enseignement catholique à participer à une collecte de denrées destinées au profit des plus fragiles ;
 la formation : l'ordre de Malte-France intervient dans quatre domaines d'expertise, le secourisme et la prévention des risques, le sanitaire, le médico-social, le juridique et le social (formation à l'accueil et à l'accompagnement des demandeurs d'asile et des migrants ainsi qu'à la prise en charge des mineurs isolés).
 L'ordre de Malte-France agit aussi à l’international :
 l’association soutient 166 centres de santé, souvent tenus par des associations ou des congrégations religieuses,  dans 26 pays, des activités de santé (à travers un réseau de cinq hôpitaux, de maternités et de centres de soins gérés ou aidés financièrement), six centres de santé en Afrique et l’« hôpital de la Sainte Famille » à Bethléem ;
-l’aide et le soutien aux réfugiés[11] ;
+l’aide et le soutien aux réfugiés ;
 des actions de secours (lors de tragiques événements politiques, de conflits ou de catastrophes climatiques/épidémiques) et de formations médicales pour permettre à tous d’accéder à des soins de qualité ;
 elle lutte également contre les maladies tropicales négligées et les grandes endémies, lutte contre la cécité évitable ;
 enfin, elle agit sur le terrain pour être toujours plus proche des populations locales, protéger la mère et l’enfant et les populations stigmatisées comme celle des autochtones d’Afrique centrale.</t>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92uvres_hospitali%C3%A8res_fran%C3%A7aises_de_l%27ordre_de_Malte</t>
+          <t>Œuvres_hospitalières_françaises_de_l'ordre_de_Malte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,15 +604,17 @@
           <t>Liste des présidents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(...)
 1986-1992 : Jean-Louis de Faucigny-Lucinge, président d'honneur
 (...)
 2002-2014 : Thierry de Beaumont-Beynac
-2014-2019 : Yann Baggio[12]
-2019-2021 : Jean-Baptiste Favatier[13]
-2021- : Cédric Chalret du Rieu[14]</t>
+2014-2019 : Yann Baggio
+2019-2021 : Jean-Baptiste Favatier
+2021- : Cédric Chalret du Rieu</t>
         </is>
       </c>
     </row>
